--- a/app/forms/household/household.xlsx
+++ b/app/forms/household/household.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A612B1-C4A8-497A-A877-6C61E4BC36D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Maclean\Documents\Projects\work\sentinel\odk-x-tools\app\forms\household\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18901CB4-8AAB-4828-99F6-A768390D49F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
   <si>
     <t>branch_label</t>
   </si>
@@ -256,9 +261,6 @@
     <t>end if</t>
   </si>
   <si>
-    <t>Thank you for registering your household! Please click finalize on the next page.</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -359,13 +361,73 @@
   </si>
   <si>
     <t>Garri, rice or grain drying spot</t>
+  </si>
+  <si>
+    <t>extra_question1</t>
+  </si>
+  <si>
+    <t>extra_question2</t>
+  </si>
+  <si>
+    <t>extra_question3</t>
+  </si>
+  <si>
+    <t>extra_question4</t>
+  </si>
+  <si>
+    <t>extra_question5</t>
+  </si>
+  <si>
+    <t>extra_question6</t>
+  </si>
+  <si>
+    <t>extra_question7</t>
+  </si>
+  <si>
+    <t>extra_question8</t>
+  </si>
+  <si>
+    <t>extra_question9</t>
+  </si>
+  <si>
+    <t>extra_question10</t>
+  </si>
+  <si>
+    <t>extra_question11</t>
+  </si>
+  <si>
+    <t>extra_question12</t>
+  </si>
+  <si>
+    <t>extra_question13</t>
+  </si>
+  <si>
+    <t>extra_question14</t>
+  </si>
+  <si>
+    <t>extra_question15</t>
+  </si>
+  <si>
+    <t>extra_question16</t>
+  </si>
+  <si>
+    <t>extra_question17</t>
+  </si>
+  <si>
+    <t>extra_question18</t>
+  </si>
+  <si>
+    <t>extra_question19</t>
+  </si>
+  <si>
+    <t>extra_question20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -376,6 +438,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -729,40 +797,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AF30"/>
+  <dimension ref="B1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5703125"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="79.28515625" customWidth="1"/>
-    <col min="9" max="9" width="57.140625" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="79.33203125" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" customWidth="1"/>
     <col min="23" max="23" width="46" customWidth="1"/>
-    <col min="24" max="1024" width="11.5703125"/>
+    <col min="24" max="1024" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +905,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="2:32">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>22</v>
       </c>
@@ -852,7 +920,7 @@
       </c>
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="2:32">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>26</v>
       </c>
@@ -869,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:32">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -877,7 +945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:32">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>22</v>
       </c>
@@ -888,13 +956,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:32">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="2:32" ht="17.649999999999999" customHeight="1">
+    <row r="9" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>34</v>
       </c>
@@ -911,7 +979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="17.649999999999999" customHeight="1">
+    <row r="10" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>37</v>
       </c>
@@ -922,7 +990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="17.649999999999999" customHeight="1">
+    <row r="11" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>37</v>
       </c>
@@ -933,7 +1001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="17.649999999999999" customHeight="1">
+    <row r="12" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>37</v>
       </c>
@@ -944,7 +1012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="17.649999999999999" customHeight="1">
+    <row r="13" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>37</v>
       </c>
@@ -958,7 +1026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="17.649999999999999" customHeight="1">
+    <row r="14" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>37</v>
       </c>
@@ -969,12 +1037,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:32">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="17.649999999999999" customHeight="1">
+    <row r="16" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>50</v>
       </c>
@@ -985,7 +1053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="3:32" ht="17.649999999999999" customHeight="1">
+    <row r="18" spans="3:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>52</v>
       </c>
@@ -999,7 +1067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="3:32" ht="17.649999999999999" customHeight="1">
+    <row r="19" spans="3:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>37</v>
       </c>
@@ -1013,7 +1081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="3:32" ht="17.649999999999999" customHeight="1">
+    <row r="20" spans="3:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>59</v>
       </c>
@@ -1027,13 +1095,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="3:32">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="3:32">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>62</v>
       </c>
@@ -1045,7 +1113,7 @@
       </c>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="3:32">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>37</v>
       </c>
@@ -1060,7 +1128,7 @@
       </c>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="3:32">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>37</v>
       </c>
@@ -1072,7 +1140,7 @@
       </c>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" spans="3:32">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>37</v>
       </c>
@@ -1087,13 +1155,13 @@
       </c>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="3:32">
+    <row r="26" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>49</v>
       </c>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="3:32">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>71</v>
       </c>
@@ -1107,20 +1175,186 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="3:32">
+    <row r="29" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="3:32">
-      <c r="F30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" t="s">
-        <v>75</v>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -1138,54 +1372,54 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="3" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1206,12 +1440,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1219,10 +1453,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1248,174 +1482,174 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>93</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
       <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
       <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
       <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
       <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
         <v>104</v>
       </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
       <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
       <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/app/forms/household/household.xlsx
+++ b/app/forms/household/household.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Maclean\Documents\Projects\work\sentinel\odk-x-tools\app\forms\household\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18901CB4-8AAB-4828-99F6-A768390D49F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41206DFD-EA90-41E2-A0BE-0DA27FF92C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="survey" sheetId="5" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
     <sheet name="model" sheetId="3" r:id="rId3"/>
     <sheet name="choices" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="342">
   <si>
     <t>branch_label</t>
   </si>
@@ -120,9 +120,6 @@
     <t xml:space="preserve">select_one </t>
   </si>
   <si>
-    <t>I'd like to ask you questions in order to help us conduct research in hopes to improve healthcare for Lassa fever. Redeemer University, the University of Cambridge, and our partners may have access to this information, including your current location, and potentially voice recording. If you accept, you may withdraw your permission at any time and ask for your data to be erased. Choosing to not participate will in no way affect the care and treatment you will receive. Are happy to participate?</t>
-  </si>
-  <si>
     <t>if</t>
   </si>
   <si>
@@ -144,72 +141,45 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>1. Choose field site</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
     <t>community_name</t>
   </si>
   <si>
-    <t>2. Name of Community</t>
-  </si>
-  <si>
     <t>village_name</t>
   </si>
   <si>
-    <t>3. Village/City name</t>
-  </si>
-  <si>
     <t>town_name</t>
   </si>
   <si>
-    <t>4. Town</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
-    <t>5. Address</t>
-  </si>
-  <si>
     <t>Enter if there is a formal address; otherwise skip</t>
   </si>
   <si>
     <t>LGA_name</t>
   </si>
   <si>
-    <t>6. LGA</t>
-  </si>
-  <si>
     <t>end screen</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>7. Date of registration</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
     <t>store_gps</t>
   </si>
   <si>
-    <t>8. Collect the GPS coordinates</t>
-  </si>
-  <si>
     <t>You must take a GPS recording. This may take &gt;5 minutes.</t>
   </si>
   <si>
     <t>GPS_taken</t>
   </si>
   <si>
-    <t>9. If you did not take GPS, please explain why not, and how long you attempted to get a reading</t>
-  </si>
-  <si>
     <t>Skip if GPS was taken</t>
   </si>
   <si>
@@ -219,18 +189,9 @@
     <t>select_one_with_other</t>
   </si>
   <si>
-    <t>10. GPS ID</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
-    <t>11. Who is the head of this household?</t>
-  </si>
-  <si>
-    <t>This might not be the person you are interviewing</t>
-  </si>
-  <si>
     <t>head_first_name</t>
   </si>
   <si>
@@ -255,9 +216,6 @@
     <t>members</t>
   </si>
   <si>
-    <t>12. How many members are there in your household?</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
@@ -363,71 +321,752 @@
     <t>Garri, rice or grain drying spot</t>
   </si>
   <si>
-    <t>extra_question1</t>
-  </si>
-  <si>
-    <t>extra_question2</t>
-  </si>
-  <si>
-    <t>extra_question3</t>
-  </si>
-  <si>
-    <t>extra_question4</t>
-  </si>
-  <si>
-    <t>extra_question5</t>
-  </si>
-  <si>
-    <t>extra_question6</t>
-  </si>
-  <si>
-    <t>extra_question7</t>
-  </si>
-  <si>
-    <t>extra_question8</t>
-  </si>
-  <si>
-    <t>extra_question9</t>
-  </si>
-  <si>
-    <t>extra_question10</t>
-  </si>
-  <si>
-    <t>extra_question11</t>
-  </si>
-  <si>
-    <t>extra_question12</t>
-  </si>
-  <si>
-    <t>extra_question13</t>
-  </si>
-  <si>
-    <t>extra_question14</t>
-  </si>
-  <si>
-    <t>extra_question15</t>
-  </si>
-  <si>
-    <t>extra_question16</t>
-  </si>
-  <si>
-    <t>extra_question17</t>
-  </si>
-  <si>
-    <t>extra_question18</t>
-  </si>
-  <si>
-    <t>extra_question19</t>
-  </si>
-  <si>
-    <t>extra_question20</t>
+    <t>interviewer_name</t>
+  </si>
+  <si>
+    <t>1. What is the name of the interviewer?</t>
+  </si>
+  <si>
+    <t>selected(data('interviewer_name'), 'Other')</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>interviewer_name_other</t>
+  </si>
+  <si>
+    <t>What is the name of the interviewer?</t>
+  </si>
+  <si>
+    <t>2. Choose field site</t>
+  </si>
+  <si>
+    <t>3. Collect the GPS coordinates</t>
+  </si>
+  <si>
+    <t>5. GPS ID</t>
+  </si>
+  <si>
+    <t>4. If you did not take GPS, please explain why not</t>
+  </si>
+  <si>
+    <t>selected(data('GPS_taken'), 'Other')</t>
+  </si>
+  <si>
+    <t>GPS_taken_other</t>
+  </si>
+  <si>
+    <t>If you did not take GPS, please explain why not</t>
+  </si>
+  <si>
+    <t>hh_lassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. In your (the interviewer's) knowledge, has anyone in this household had Lassa fever? </t>
+  </si>
+  <si>
+    <t>To be answered by interviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. I'd like to ask you questions in order to help us conduct research in hopes to improve healthcare for Lassa fever. Redeemer University, the University of Cambridge, and our partners may have access to this information, including your current location. .  Note that you may withdraw your permission at any time and ask for your data to be erased. Choosing to not participate will in no way affect the care and treatment you will receive. Are you happy to participate? </t>
+  </si>
+  <si>
+    <t>consent_name</t>
+  </si>
+  <si>
+    <t>8. What is the name of the individual consenting to registering the household?</t>
+  </si>
+  <si>
+    <t>9. Who is the head of this household?</t>
+  </si>
+  <si>
+    <t>9. Name of Community</t>
+  </si>
+  <si>
+    <t>selected(data('community_name'), 'Other')</t>
+  </si>
+  <si>
+    <t>community_name_other</t>
+  </si>
+  <si>
+    <t>Name of Community</t>
+  </si>
+  <si>
+    <t>10. Village/City name</t>
+  </si>
+  <si>
+    <t>selected(data('village_name'), 'Other')</t>
+  </si>
+  <si>
+    <t>village_name_other</t>
+  </si>
+  <si>
+    <t>Village/City name</t>
+  </si>
+  <si>
+    <t>11. Town</t>
+  </si>
+  <si>
+    <t>12. Address</t>
+  </si>
+  <si>
+    <t>13. LGA</t>
+  </si>
+  <si>
+    <t>7. Registration date</t>
+  </si>
+  <si>
+    <t>Today's date</t>
+  </si>
+  <si>
+    <t>farm_proximity</t>
+  </si>
+  <si>
+    <t>16. Is this house located on or beside a farm?</t>
+  </si>
+  <si>
+    <t>data('farm_proximity') == 'Yes'</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>farm_produce</t>
+  </si>
+  <si>
+    <t>17. What is grown on the farm?</t>
+  </si>
+  <si>
+    <t>selected(data('farm_produce'), 'Other')</t>
+  </si>
+  <si>
+    <t>farm_produce_other</t>
+  </si>
+  <si>
+    <t>18. Specify what is grown</t>
+  </si>
+  <si>
+    <t>data('farm_proximity') == 'No'</t>
+  </si>
+  <si>
+    <t>farm_minutes</t>
+  </si>
+  <si>
+    <t>18. How many minutes away is the closest farm (walking)?</t>
+  </si>
+  <si>
+    <t>In total, including you. (Note: only people who regularly eat from the same pot count as being part of one household)</t>
+  </si>
+  <si>
+    <t>10. How many people live in this household?</t>
+  </si>
+  <si>
+    <t>hh_lassa_status</t>
+  </si>
+  <si>
+    <t>22. Have you or anyone in your household ever been diagnosed with Lassa?</t>
+  </si>
+  <si>
+    <t>data('hh_lassa_status') == 'Yes'</t>
+  </si>
+  <si>
+    <t>hh_lassa_when</t>
+  </si>
+  <si>
+    <t>23. When was the most recent case of Lassa fever diagnosed in this household?</t>
+  </si>
+  <si>
+    <t>hh_lassa_death</t>
+  </si>
+  <si>
+    <t>24. Has anyone died from Lassa fever in this household?</t>
+  </si>
+  <si>
+    <t>Only select Yes if the person was diagnosed PCR positive for Lassa</t>
+  </si>
+  <si>
+    <t>Only answer if the person was diagnosed PCR positive for Lassa</t>
+  </si>
+  <si>
+    <t>property_cat</t>
+  </si>
+  <si>
+    <t>19. Do you have a cat on this property?</t>
+  </si>
+  <si>
+    <t>property_dog</t>
+  </si>
+  <si>
+    <t>20. Do you have a dog on this property?</t>
+  </si>
+  <si>
+    <t>hh_income</t>
+  </si>
+  <si>
+    <t>21. What is the average yearly income for the household (in naira)?</t>
+  </si>
+  <si>
+    <t>Do not include rare events, such as land sale</t>
+  </si>
+  <si>
+    <t>television</t>
+  </si>
+  <si>
+    <t>Do you own a television?</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>Do you own a refrigerator?</t>
+  </si>
+  <si>
+    <t>toilet_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What type of toilet do you have? </t>
+  </si>
+  <si>
+    <t>selected(data('toilet_type'), 'Other')</t>
+  </si>
+  <si>
+    <t>toilet_type_other</t>
+  </si>
+  <si>
+    <t>roof_material</t>
+  </si>
+  <si>
+    <t>What is the roof made of?</t>
+  </si>
+  <si>
+    <t>selected(data('roof_material'), 'Other')</t>
+  </si>
+  <si>
+    <t>roof_material_other</t>
+  </si>
+  <si>
+    <t>house_material</t>
+  </si>
+  <si>
+    <t>What type of material is your house primarily made of?</t>
+  </si>
+  <si>
+    <t>selected(data('house_material'), 'Other')</t>
+  </si>
+  <si>
+    <t>house_material_other</t>
+  </si>
+  <si>
+    <t>rodent_burrows</t>
+  </si>
+  <si>
+    <t>26. Do you have rat holes in/around your house?</t>
+  </si>
+  <si>
+    <t>hh_shop</t>
+  </si>
+  <si>
+    <t>27. Do you run a shop out of your house?</t>
+  </si>
+  <si>
+    <t>hh_medical_services</t>
+  </si>
+  <si>
+    <t>28. Do you run informal health services from your house (e.g. local optometry, orthopedics, infectious disease specialists and birth attendants, traditional healer)?</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>29. Where do you dump your refuse?</t>
+  </si>
+  <si>
+    <t>If multiple, select main dumpsite</t>
+  </si>
+  <si>
+    <t>selected(data('dump'), 'Other')</t>
+  </si>
+  <si>
+    <t>dump_other</t>
+  </si>
+  <si>
+    <t>Describe where your refuse is dumped</t>
+  </si>
+  <si>
+    <t>see_dump</t>
+  </si>
+  <si>
+    <t>30. Can we see the dump site?</t>
+  </si>
+  <si>
+    <t>data('see_dump') == 'Yes'</t>
+  </si>
+  <si>
+    <t>visit_dump</t>
+  </si>
+  <si>
+    <t>Visiting dump site</t>
+  </si>
+  <si>
+    <t>far_dump</t>
+  </si>
+  <si>
+    <t>31. How many steps is it from the house?</t>
+  </si>
+  <si>
+    <t>You can enter '25' for anything 25 steps or greater</t>
+  </si>
+  <si>
+    <t>picture_dump</t>
+  </si>
+  <si>
+    <t>32. Can we take a picture of the dumpsite?</t>
+  </si>
+  <si>
+    <t>data('picture_dump') == 'Yes'</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>dump1</t>
+  </si>
+  <si>
+    <t>gps_dump</t>
+  </si>
+  <si>
+    <t>34. Can we take a GPS point of the dumpsite?</t>
+  </si>
+  <si>
+    <t>data('gps_dump') == 'Yes'</t>
+  </si>
+  <si>
+    <t>store_gps_dump</t>
+  </si>
+  <si>
+    <t>dump_notes</t>
+  </si>
+  <si>
+    <t>additional_notes</t>
+  </si>
+  <si>
+    <t>27. Any general additional notes?</t>
+  </si>
+  <si>
+    <t>33. Take picture of dump site</t>
+  </si>
+  <si>
+    <t>35. Take GPS coordinates of dump site</t>
+  </si>
+  <si>
+    <t>36. Add any optional notes about dump</t>
+  </si>
+  <si>
+    <t>adeke_azuka</t>
+  </si>
+  <si>
+    <t>Adeke Azuka</t>
+  </si>
+  <si>
+    <t>awe_abimbola</t>
+  </si>
+  <si>
+    <t>Awe Abimbola</t>
+  </si>
+  <si>
+    <t>benedict_azuogu</t>
+  </si>
+  <si>
+    <t>Benedict Azuogu</t>
+  </si>
+  <si>
+    <t>chuks_abejegah</t>
+  </si>
+  <si>
+    <t>Chuks Abejegah</t>
+  </si>
+  <si>
+    <t>dauda_saheed</t>
+  </si>
+  <si>
+    <t>Dauda Saheed</t>
+  </si>
+  <si>
+    <t>edith_abejegah</t>
+  </si>
+  <si>
+    <t>Edith Abejegah</t>
+  </si>
+  <si>
+    <t>ewenyi_blessing</t>
+  </si>
+  <si>
+    <t>Ewenyi Blessing</t>
+  </si>
+  <si>
+    <t>ibemesi_deborah</t>
+  </si>
+  <si>
+    <t>Ibemesi Deborah</t>
+  </si>
+  <si>
+    <t>ifenyinwa_akamike</t>
+  </si>
+  <si>
+    <t>Ifenyinwa Akamike</t>
+  </si>
+  <si>
+    <t>ifenyinwa_okafor</t>
+  </si>
+  <si>
+    <t>Ifenyinwa Okafor</t>
+  </si>
+  <si>
+    <t>iloke_chijioke</t>
+  </si>
+  <si>
+    <t>Iloke Chijioke</t>
+  </si>
+  <si>
+    <t>kingsley_okeke</t>
+  </si>
+  <si>
+    <t>Kingsley Okeke</t>
+  </si>
+  <si>
+    <t>nancy_igboke</t>
+  </si>
+  <si>
+    <t>Nancy Igboke</t>
+  </si>
+  <si>
+    <t>oke_clement_osigbodi</t>
+  </si>
+  <si>
+    <t>Oke Clement Osigbodi</t>
+  </si>
+  <si>
+    <t>okocha_yusuf</t>
+  </si>
+  <si>
+    <t>Okocha Yusuf</t>
+  </si>
+  <si>
+    <t>osagbaekhoe_austin</t>
+  </si>
+  <si>
+    <t>Osagbaekhoe Austin</t>
+  </si>
+  <si>
+    <t>patricia_otuh</t>
+  </si>
+  <si>
+    <t>Patricia Otuh</t>
+  </si>
+  <si>
+    <t>roseline_adeleye</t>
+  </si>
+  <si>
+    <t>Roseline Adeleye</t>
+  </si>
+  <si>
+    <t>umeokonkwo_chukwuma</t>
+  </si>
+  <si>
+    <t>Umeokonkwo Chukwuma</t>
+  </si>
+  <si>
+    <t>una_alfred</t>
+  </si>
+  <si>
+    <t>Una Alfred</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other (enter name)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test (Not real data)</t>
+  </si>
+  <si>
+    <t>poor_connection</t>
+  </si>
+  <si>
+    <t>Poor connection, took over 5 minutes</t>
+  </si>
+  <si>
+    <t>interview_hospital</t>
+  </si>
+  <si>
+    <t>Interviewed at hospital/clinic</t>
+  </si>
+  <si>
+    <t>previous_survey</t>
+  </si>
+  <si>
+    <t>Previous survey</t>
+  </si>
+  <si>
+    <t>dont_know</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>Abakaliki</t>
+  </si>
+  <si>
+    <t>Abakpa</t>
+  </si>
+  <si>
+    <t>Afikpo</t>
+  </si>
+  <si>
+    <t>Agbaja</t>
+  </si>
+  <si>
+    <t>Amachi</t>
+  </si>
+  <si>
+    <t>Ehinogbe</t>
+  </si>
+  <si>
+    <t>Ifon</t>
+  </si>
+  <si>
+    <t>Ijagba</t>
+  </si>
+  <si>
+    <t>Ijebu</t>
+  </si>
+  <si>
+    <t>Imoru</t>
+  </si>
+  <si>
+    <t>Ipele</t>
+  </si>
+  <si>
+    <t>Isaipen</t>
+  </si>
+  <si>
+    <t>Isuada</t>
+  </si>
+  <si>
+    <t>Izzi Unuhu</t>
+  </si>
+  <si>
+    <t>Mgbalukwu</t>
+  </si>
+  <si>
+    <t>Nkaliki</t>
+  </si>
+  <si>
+    <t>Ogbese</t>
+  </si>
+  <si>
+    <t>Okpuitumo</t>
+  </si>
+  <si>
+    <t>Aguogboriga</t>
+  </si>
+  <si>
+    <t>Egugwu Agbaja</t>
+  </si>
+  <si>
+    <t>Enyim</t>
+  </si>
+  <si>
+    <t>Ibeje</t>
+  </si>
+  <si>
+    <t>Ndiachi</t>
+  </si>
+  <si>
+    <t>Onueke</t>
+  </si>
+  <si>
+    <t>Onuenyim</t>
+  </si>
+  <si>
+    <t>Owo</t>
+  </si>
+  <si>
+    <t>Uburu</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>cassava</t>
+  </si>
+  <si>
+    <t>Cassava</t>
+  </si>
+  <si>
+    <t>yams</t>
+  </si>
+  <si>
+    <t>Yams</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>native_toilet</t>
+  </si>
+  <si>
+    <t>Native toilet</t>
+  </si>
+  <si>
+    <t>pit_toilet</t>
+  </si>
+  <si>
+    <t>Pit toilet</t>
+  </si>
+  <si>
+    <t>flushing_toilet</t>
+  </si>
+  <si>
+    <t>Flushing toilet</t>
+  </si>
+  <si>
+    <t>shit_for_bush</t>
+  </si>
+  <si>
+    <t>Shit for bush</t>
+  </si>
+  <si>
+    <t>thatch</t>
+  </si>
+  <si>
+    <t>Thatch/Rafter (dry grasses)</t>
+  </si>
+  <si>
+    <t>nigerian_zinc</t>
+  </si>
+  <si>
+    <t>Nigerian zinc</t>
+  </si>
+  <si>
+    <t>cameroon_zinc</t>
+  </si>
+  <si>
+    <t>Cameroon zinc (or John host)</t>
+  </si>
+  <si>
+    <t>long_span_zinc</t>
+  </si>
+  <si>
+    <t>Long span zinc</t>
+  </si>
+  <si>
+    <t>mud_stick</t>
+  </si>
+  <si>
+    <t>Mud/stick</t>
+  </si>
+  <si>
+    <t>wooden_frame</t>
+  </si>
+  <si>
+    <t>Wooden frame</t>
+  </si>
+  <si>
+    <t>mud_block</t>
+  </si>
+  <si>
+    <t>Mud block</t>
+  </si>
+  <si>
+    <t>cemet_block</t>
+  </si>
+  <si>
+    <t>Cement block</t>
+  </si>
+  <si>
+    <t>plaster</t>
+  </si>
+  <si>
+    <t>Plaster</t>
+  </si>
+  <si>
+    <t>government_collection</t>
+  </si>
+  <si>
+    <t>In waste bags, and then leave on roadside for government collection</t>
+  </si>
+  <si>
+    <t>open_dumpsite_near</t>
+  </si>
+  <si>
+    <t>Open dumpsite/dustbins near house or in the compound (ie. backyard, front/side of house)</t>
+  </si>
+  <si>
+    <t>open_dumpside_far</t>
+  </si>
+  <si>
+    <t>Open dumpsite/dustbins far from house or outside compound</t>
+  </si>
+  <si>
+    <t>open_dumpsite_farm</t>
+  </si>
+  <si>
+    <t>Open dumpsite/dustbins on nearby farm</t>
+  </si>
+  <si>
+    <t>gutter_near</t>
+  </si>
+  <si>
+    <t>Gutter or stream in front of house</t>
+  </si>
+  <si>
+    <t>gutter_far</t>
+  </si>
+  <si>
+    <t>Gutter or stream far from house</t>
+  </si>
+  <si>
+    <t>bush</t>
+  </si>
+  <si>
+    <t>In the bush</t>
+  </si>
+  <si>
+    <t>data('members')&lt;50</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;This might not be the person you are interviewing&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -438,13 +1077,38 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3C4043"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -483,6 +1147,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,41 +1466,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AF53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59351C-AD81-764F-BBCF-1AC082999B8E}">
+  <dimension ref="B1:AF146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.5546875"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="79.33203125" customWidth="1"/>
-    <col min="9" max="9" width="57.109375" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" customWidth="1"/>
-    <col min="20" max="20" width="27.44140625" customWidth="1"/>
-    <col min="21" max="21" width="7.88671875" customWidth="1"/>
-    <col min="22" max="22" width="13.5546875" customWidth="1"/>
-    <col min="23" max="23" width="46" customWidth="1"/>
-    <col min="24" max="1024" width="11.5546875"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +1556,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>22</v>
       </c>
@@ -920,447 +1571,1133 @@
       </c>
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G22" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H22" t="s">
+        <v>111</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I25" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" t="s">
+        <v>127</v>
+      </c>
+      <c r="U26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" t="s">
+        <v>113</v>
+      </c>
+      <c r="U28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+      <c r="U32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+      <c r="U33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="G41" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" t="s">
         <v>38</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" t="s">
+        <v>141</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="S49" t="s">
+        <v>340</v>
+      </c>
+      <c r="U49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>42</v>
       </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="3:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="3:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:32" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" t="s">
-        <v>66</v>
-      </c>
-      <c r="U23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF24" s="4"/>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" t="s">
-        <v>70</v>
-      </c>
-      <c r="U25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF25" s="4"/>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF26" s="4"/>
-    </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" t="s">
-        <v>73</v>
-      </c>
-      <c r="U27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" t="s">
+        <v>143</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="U65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" t="s">
+        <v>146</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" t="s">
+        <v>148</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="s">
+        <v>153</v>
+      </c>
+      <c r="H75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" t="s">
+        <v>158</v>
+      </c>
+      <c r="H79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="s">
+        <v>160</v>
+      </c>
+      <c r="H81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" t="s">
+        <v>162</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" t="s">
+        <v>165</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>166</v>
+      </c>
+      <c r="F91" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" t="s">
+        <v>166</v>
+      </c>
+      <c r="H91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" t="s">
+        <v>169</v>
+      </c>
+      <c r="H93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" t="s">
+        <v>170</v>
+      </c>
+      <c r="H95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97" t="s">
+        <v>173</v>
+      </c>
+      <c r="H97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>174</v>
+      </c>
+      <c r="F102" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" t="s">
+        <v>174</v>
+      </c>
+      <c r="H102" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>176</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
+        <v>176</v>
+      </c>
+      <c r="H105" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>178</v>
+      </c>
+      <c r="F107" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H107" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>58</v>
+      </c>
+      <c r="G110" t="s">
+        <v>155</v>
+      </c>
+      <c r="H110" t="s">
+        <v>156</v>
+      </c>
+      <c r="L110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>180</v>
+      </c>
+      <c r="F114" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" t="s">
+        <v>180</v>
+      </c>
+      <c r="H114" t="s">
+        <v>181</v>
+      </c>
+      <c r="L114" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>98</v>
+      </c>
+      <c r="G116" t="s">
+        <v>184</v>
+      </c>
+      <c r="H116" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C121" s="11"/>
+      <c r="E121" t="s">
+        <v>186</v>
+      </c>
+      <c r="F121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>186</v>
+      </c>
+      <c r="H121" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C122" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C123" s="11"/>
+      <c r="D123" s="5"/>
+      <c r="G123" t="s">
+        <v>189</v>
+      </c>
+      <c r="H123" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C124" s="11"/>
+      <c r="F124" t="s">
+        <v>58</v>
+      </c>
+      <c r="G124" t="s">
+        <v>191</v>
+      </c>
+      <c r="H124" t="s">
+        <v>192</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C125" s="11"/>
+    </row>
+    <row r="127" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C127" s="11"/>
+      <c r="E127" t="s">
+        <v>194</v>
+      </c>
+      <c r="F127" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" t="s">
+        <v>194</v>
+      </c>
+      <c r="H127" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C128" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C129" s="11"/>
+      <c r="F129" t="s">
+        <v>197</v>
+      </c>
+      <c r="G129" t="s">
+        <v>198</v>
+      </c>
+      <c r="H129" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C130" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" s="5"/>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C133" s="11"/>
+      <c r="E133" t="s">
+        <v>199</v>
+      </c>
+      <c r="F133" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" t="s">
+        <v>199</v>
+      </c>
+      <c r="H133" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C134" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C135" s="11"/>
+      <c r="F135" t="s">
+        <v>44</v>
+      </c>
+      <c r="G135" t="s">
+        <v>202</v>
+      </c>
+      <c r="H135" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C136" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C139" s="11"/>
+      <c r="F139" t="s">
+        <v>98</v>
+      </c>
+      <c r="G139" t="s">
+        <v>203</v>
+      </c>
+      <c r="H139" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C140" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>98</v>
+      </c>
+      <c r="G143" t="s">
+        <v>204</v>
+      </c>
+      <c r="H143" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1369,57 +2706,57 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="1025" width="11.5546875"/>
+    <col min="3" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1440,12 +2777,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5546875"/>
+    <col min="1" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1453,15 +2790,15 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1476,180 +2813,1694 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A2" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5546875"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
         <v>93</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C20" t="s">
         <v>94</v>
       </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" t="s">
+        <v>259</v>
+      </c>
+      <c r="C72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>261</v>
+      </c>
+      <c r="C77" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" t="s">
+        <v>267</v>
+      </c>
+      <c r="C102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" t="s">
+        <v>269</v>
+      </c>
+      <c r="C104" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>271</v>
+      </c>
+      <c r="C106" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>273</v>
+      </c>
+      <c r="C107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" t="s">
+        <v>284</v>
+      </c>
+      <c r="C111" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
+        <v>288</v>
+      </c>
+      <c r="C120" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" t="s">
+        <v>290</v>
+      </c>
+      <c r="C121" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" t="s">
+        <v>292</v>
+      </c>
+      <c r="C122" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>294</v>
+      </c>
+      <c r="C123" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" t="s">
+        <v>296</v>
+      </c>
+      <c r="C124" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s">
+        <v>298</v>
+      </c>
+      <c r="C126" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>147</v>
+      </c>
+      <c r="B132" t="s">
+        <v>77</v>
+      </c>
+      <c r="C132" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" t="s">
+        <v>298</v>
+      </c>
+      <c r="C134" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" t="s">
+        <v>77</v>
+      </c>
+      <c r="C136" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" t="s">
+        <v>78</v>
+      </c>
+      <c r="C137" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" t="s">
+        <v>298</v>
+      </c>
+      <c r="C138" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" t="s">
+        <v>78</v>
+      </c>
+      <c r="C141" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" t="s">
+        <v>298</v>
+      </c>
+      <c r="C142" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" t="s">
+        <v>249</v>
+      </c>
+      <c r="C156" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" t="s">
+        <v>308</v>
+      </c>
+      <c r="C158" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" t="s">
+        <v>310</v>
+      </c>
+      <c r="C159" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" t="s">
+        <v>312</v>
+      </c>
+      <c r="C160" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" t="s">
+        <v>314</v>
+      </c>
+      <c r="C161" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" t="s">
+        <v>249</v>
+      </c>
+      <c r="C162" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" t="s">
+        <v>316</v>
+      </c>
+      <c r="C164" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" t="s">
+        <v>318</v>
+      </c>
+      <c r="C165" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" t="s">
+        <v>320</v>
+      </c>
+      <c r="C166" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>322</v>
+      </c>
+      <c r="C167" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>324</v>
+      </c>
+      <c r="C168" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>249</v>
+      </c>
+      <c r="C169" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" t="s">
+        <v>77</v>
+      </c>
+      <c r="C171" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>78</v>
+      </c>
+      <c r="C172" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>299</v>
+      </c>
+      <c r="C173" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>77</v>
+      </c>
+      <c r="C175" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>78</v>
+      </c>
+      <c r="C176" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>299</v>
+      </c>
+      <c r="C177" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>77</v>
+      </c>
+      <c r="C179" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>78</v>
+      </c>
+      <c r="C180" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
+        <v>299</v>
+      </c>
+      <c r="C181" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>326</v>
+      </c>
+      <c r="C183" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184" t="s">
+        <v>328</v>
+      </c>
+      <c r="C184" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>180</v>
+      </c>
+      <c r="B185" t="s">
+        <v>330</v>
+      </c>
+      <c r="C185" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>180</v>
+      </c>
+      <c r="B186" t="s">
+        <v>332</v>
+      </c>
+      <c r="C186" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>180</v>
+      </c>
+      <c r="B187" t="s">
+        <v>334</v>
+      </c>
+      <c r="C187" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>180</v>
+      </c>
+      <c r="B188" t="s">
+        <v>336</v>
+      </c>
+      <c r="C188" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>180</v>
+      </c>
+      <c r="B189" t="s">
+        <v>338</v>
+      </c>
+      <c r="C189" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>180</v>
+      </c>
+      <c r="B190" t="s">
+        <v>249</v>
+      </c>
+      <c r="C190" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>186</v>
+      </c>
+      <c r="B192" t="s">
+        <v>77</v>
+      </c>
+      <c r="C192" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" t="s">
+        <v>78</v>
+      </c>
+      <c r="C193" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>77</v>
+      </c>
+      <c r="C195" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>78</v>
+      </c>
+      <c r="C196" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>77</v>
+      </c>
+      <c r="C198" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>78</v>
+      </c>
+      <c r="C199" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/app/forms/household/household.xlsx
+++ b/app/forms/household/household.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Maclean\Documents\Projects\work\sentinel\odk-x-tools\app\forms\household\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41206DFD-EA90-41E2-A0BE-0DA27FF92C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B991A-1F3B-4B1A-A6EF-BE90A4097EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="model" sheetId="3" r:id="rId3"/>
     <sheet name="choices" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="366">
   <si>
     <t>branch_label</t>
   </si>
@@ -192,6 +192,9 @@
     <t>note</t>
   </si>
   <si>
+    <t>This might not be the person you are interviewing</t>
+  </si>
+  <si>
     <t>head_first_name</t>
   </si>
   <si>
@@ -243,9 +246,6 @@
     <t>survey</t>
   </si>
   <si>
-    <t>New Household</t>
-  </si>
-  <si>
     <t>isSessionVariable</t>
   </si>
   <si>
@@ -273,15 +273,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Household</t>
   </si>
   <si>
@@ -345,9 +336,6 @@
     <t>3. Collect the GPS coordinates</t>
   </si>
   <si>
-    <t>5. GPS ID</t>
-  </si>
-  <si>
     <t>4. If you did not take GPS, please explain why not</t>
   </si>
   <si>
@@ -357,9 +345,6 @@
     <t>GPS_taken_other</t>
   </si>
   <si>
-    <t>If you did not take GPS, please explain why not</t>
-  </si>
-  <si>
     <t>hh_lassa</t>
   </si>
   <si>
@@ -375,48 +360,18 @@
     <t>consent_name</t>
   </si>
   <si>
-    <t>8. What is the name of the individual consenting to registering the household?</t>
-  </si>
-  <si>
-    <t>9. Who is the head of this household?</t>
-  </si>
-  <si>
-    <t>9. Name of Community</t>
-  </si>
-  <si>
     <t>selected(data('community_name'), 'Other')</t>
   </si>
   <si>
     <t>community_name_other</t>
   </si>
   <si>
-    <t>Name of Community</t>
-  </si>
-  <si>
-    <t>10. Village/City name</t>
-  </si>
-  <si>
     <t>selected(data('village_name'), 'Other')</t>
   </si>
   <si>
     <t>village_name_other</t>
   </si>
   <si>
-    <t>Village/City name</t>
-  </si>
-  <si>
-    <t>11. Town</t>
-  </si>
-  <si>
-    <t>12. Address</t>
-  </si>
-  <si>
-    <t>13. LGA</t>
-  </si>
-  <si>
-    <t>7. Registration date</t>
-  </si>
-  <si>
     <t>Today's date</t>
   </si>
   <si>
@@ -459,9 +414,6 @@
     <t>In total, including you. (Note: only people who regularly eat from the same pot count as being part of one household)</t>
   </si>
   <si>
-    <t>10. How many people live in this household?</t>
-  </si>
-  <si>
     <t>hh_lassa_status</t>
   </si>
   <si>
@@ -1056,10 +1008,130 @@
     <t>In the bush</t>
   </si>
   <si>
-    <t>data('members')&lt;50</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;This might not be the person you are interviewing&lt;/b&gt;</t>
+    <t>selected(data('site'), 'Other')</t>
+  </si>
+  <si>
+    <t>site_other</t>
+  </si>
+  <si>
+    <t>Specify other site</t>
+  </si>
+  <si>
+    <t>Name of Community (Other)</t>
+  </si>
+  <si>
+    <t>Village/City name (Other)</t>
+  </si>
+  <si>
+    <t>data('members')&lt;30</t>
+  </si>
+  <si>
+    <t>If you did not take GPS, please explain why not (other)</t>
+  </si>
+  <si>
+    <t>extra_question1</t>
+  </si>
+  <si>
+    <t>extra_question2</t>
+  </si>
+  <si>
+    <t>extra_question3</t>
+  </si>
+  <si>
+    <t>extra_question4</t>
+  </si>
+  <si>
+    <t>extra_question5</t>
+  </si>
+  <si>
+    <t>extra_question6</t>
+  </si>
+  <si>
+    <t>extra_question7</t>
+  </si>
+  <si>
+    <t>extra_question8</t>
+  </si>
+  <si>
+    <t>extra_question9</t>
+  </si>
+  <si>
+    <t>extra_question10</t>
+  </si>
+  <si>
+    <t>extra_question11</t>
+  </si>
+  <si>
+    <t>extra_question12</t>
+  </si>
+  <si>
+    <t>extra_question13</t>
+  </si>
+  <si>
+    <t>extra_question14</t>
+  </si>
+  <si>
+    <t>extra_question15</t>
+  </si>
+  <si>
+    <t>extra_question16</t>
+  </si>
+  <si>
+    <t>extra_question17</t>
+  </si>
+  <si>
+    <t>extra_question18</t>
+  </si>
+  <si>
+    <t>extra_question19</t>
+  </si>
+  <si>
+    <t>extra_question20</t>
+  </si>
+  <si>
+    <t>5. GPS ID (location type)</t>
+  </si>
+  <si>
+    <t>New Household Registration</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>_____________________</t>
+  </si>
+  <si>
+    <t>manual_gps</t>
+  </si>
+  <si>
+    <t>Enter GPS coordinates manually (if necessary)</t>
+  </si>
+  <si>
+    <t>8. Registration date</t>
+  </si>
+  <si>
+    <t>9. What is the name of the individual consenting to registering the household?</t>
+  </si>
+  <si>
+    <t>10. Who is the head of this household?</t>
+  </si>
+  <si>
+    <t>11. Name of Community</t>
+  </si>
+  <si>
+    <t>12. Village/City name</t>
+  </si>
+  <si>
+    <t>13. Town</t>
+  </si>
+  <si>
+    <t>14. Address</t>
+  </si>
+  <si>
+    <t>15. LGA</t>
+  </si>
+  <si>
+    <t>16. How many people live in this household?</t>
   </si>
 </sst>
 </file>
@@ -1111,12 +1183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1131,7 +1209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1153,6 +1231,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1467,15 +1546,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59351C-AD81-764F-BBCF-1AC082999B8E}">
-  <dimension ref="B1:AF146"/>
+  <dimension ref="B1:AF178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="56.7109375" customWidth="1"/>
@@ -1572,20 +1652,23 @@
       <c r="AF2" s="4"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E4" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1596,23 +1679,36 @@
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.2">
@@ -1626,536 +1722,548 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" t="s">
-        <v>46</v>
+        <v>326</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>48</v>
+      <c r="C13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" t="s">
-        <v>107</v>
+      <c r="C15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>60</v>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>50</v>
+      <c r="F17" t="s">
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>355</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" t="s">
-        <v>110</v>
-      </c>
-      <c r="U19">
+        <v>100</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" t="s">
+        <v>105</v>
+      </c>
+      <c r="U26">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F29" t="s">
         <v>27</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G29" t="s">
         <v>26</v>
       </c>
-      <c r="H22" t="s">
-        <v>111</v>
-      </c>
-      <c r="U22">
+      <c r="H29" t="s">
+        <v>106</v>
+      </c>
+      <c r="U29">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="31" spans="3:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D31" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s">
-        <v>126</v>
-      </c>
-      <c r="L26" t="s">
-        <v>127</v>
-      </c>
-      <c r="U26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" t="s">
-        <v>113</v>
-      </c>
-      <c r="U28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" t="s">
-        <v>114</v>
-      </c>
-      <c r="L31" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s">
-        <v>53</v>
-      </c>
-      <c r="U32" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" t="s">
-        <v>55</v>
-      </c>
-      <c r="U33" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>357</v>
+      </c>
+      <c r="L34" t="s">
+        <v>112</v>
       </c>
       <c r="U34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" t="s">
+        <v>358</v>
+      </c>
+      <c r="U36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>359</v>
+      </c>
+      <c r="L39" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>60</v>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" t="s">
+        <v>54</v>
+      </c>
+      <c r="U40" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>37</v>
-      </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>120</v>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H43" t="s">
-        <v>122</v>
+      <c r="C43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
       <c r="F45" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s">
-        <v>123</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F46" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s">
-        <v>124</v>
-      </c>
-      <c r="L46" t="s">
-        <v>40</v>
-      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="U46" s="8"/>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="H47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>141</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="S49" t="s">
-        <v>340</v>
-      </c>
-      <c r="U49" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s">
+        <v>363</v>
+      </c>
+      <c r="L54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" t="s">
-        <v>131</v>
-      </c>
-      <c r="G54" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F56" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" t="s">
-        <v>135</v>
-      </c>
-      <c r="H56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
+    <row r="57" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>60</v>
+      <c r="H57" t="s">
+        <v>365</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="S57" t="s">
+        <v>329</v>
+      </c>
+      <c r="U57" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="H60" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" t="s">
+        <v>117</v>
+      </c>
+      <c r="H62" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="E65" t="s">
-        <v>142</v>
-      </c>
-      <c r="F65" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" t="s">
-        <v>142</v>
-      </c>
-      <c r="H65" t="s">
-        <v>143</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="U65" t="s">
-        <v>29</v>
+      <c r="F64" t="s">
+        <v>95</v>
+      </c>
+      <c r="G64" t="s">
+        <v>120</v>
+      </c>
+      <c r="H64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
         <v>28</v>
       </c>
-      <c r="D66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F67" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s">
-        <v>145</v>
-      </c>
-      <c r="H67" t="s">
-        <v>146</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="E68" t="s">
-        <v>147</v>
-      </c>
+      <c r="D67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F68" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="3:21" x14ac:dyDescent="0.2">
@@ -2168,341 +2276,364 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="F73" t="s">
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="H73" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E75" t="s">
-        <v>153</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="U73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F75" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s">
+        <v>129</v>
+      </c>
+      <c r="H75" t="s">
+        <v>130</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="3:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" t="s">
         <v>34</v>
       </c>
-      <c r="G75" t="s">
-        <v>153</v>
-      </c>
-      <c r="H75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>42</v>
+      <c r="G76" t="s">
+        <v>131</v>
+      </c>
+      <c r="H76" t="s">
+        <v>132</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E79" t="s">
-        <v>158</v>
-      </c>
-      <c r="F79" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" t="s">
-        <v>158</v>
-      </c>
-      <c r="H79" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="F81" t="s">
         <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="H81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>137</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
+        <v>137</v>
+      </c>
+      <c r="H83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>162</v>
-      </c>
-      <c r="F84" t="s">
-        <v>131</v>
-      </c>
-      <c r="G84" t="s">
-        <v>162</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" t="s">
-        <v>165</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>60</v>
+      <c r="E87" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>42</v>
+      <c r="E89" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" t="s">
+        <v>144</v>
+      </c>
+      <c r="H89" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E91" t="s">
-        <v>166</v>
-      </c>
-      <c r="F91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G91" t="s">
-        <v>166</v>
-      </c>
-      <c r="H91" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
+    <row r="92" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" t="s">
+        <v>116</v>
+      </c>
+      <c r="G92" t="s">
+        <v>146</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" t="s">
-        <v>169</v>
-      </c>
-      <c r="H93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>60</v>
+      <c r="D93" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" t="s">
+        <v>149</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E95" t="s">
-        <v>170</v>
-      </c>
-      <c r="F95" t="s">
-        <v>131</v>
-      </c>
-      <c r="G95" t="s">
-        <v>170</v>
-      </c>
-      <c r="H95" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
+      <c r="C95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>150</v>
+      </c>
+      <c r="F99" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99" t="s">
+        <v>150</v>
+      </c>
+      <c r="H99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F97" t="s">
-        <v>98</v>
-      </c>
-      <c r="G97" t="s">
-        <v>173</v>
-      </c>
-      <c r="H97" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C98" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E102" t="s">
-        <v>174</v>
-      </c>
-      <c r="F102" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" t="s">
-        <v>174</v>
-      </c>
-      <c r="H102" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D100" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>95</v>
+      </c>
+      <c r="G101" t="s">
+        <v>153</v>
+      </c>
+      <c r="H101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103" t="s">
+        <v>116</v>
+      </c>
+      <c r="G103" t="s">
+        <v>154</v>
+      </c>
+      <c r="H103" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E105" t="s">
-        <v>176</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F105" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="G105" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H105" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E107" t="s">
-        <v>178</v>
-      </c>
-      <c r="F107" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" t="s">
-        <v>178</v>
-      </c>
-      <c r="H107" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>158</v>
+      </c>
       <c r="F110" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H110" t="s">
-        <v>156</v>
-      </c>
-      <c r="L110" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E114" t="s">
-        <v>180</v>
-      </c>
-      <c r="F114" t="s">
+    <row r="113" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>160</v>
+      </c>
+      <c r="F113" t="s">
         <v>34</v>
       </c>
-      <c r="G114" t="s">
-        <v>180</v>
-      </c>
-      <c r="H114" t="s">
-        <v>181</v>
-      </c>
-      <c r="L114" t="s">
-        <v>182</v>
+      <c r="G113" t="s">
+        <v>160</v>
+      </c>
+      <c r="H113" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>183</v>
+      <c r="E115" t="s">
+        <v>162</v>
+      </c>
+      <c r="F115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" t="s">
+        <v>162</v>
+      </c>
+      <c r="H115" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F116" t="s">
-        <v>98</v>
-      </c>
-      <c r="G116" t="s">
-        <v>184</v>
-      </c>
-      <c r="H116" t="s">
-        <v>185</v>
+      <c r="C116" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>59</v>
+      </c>
+      <c r="G118" t="s">
+        <v>139</v>
+      </c>
+      <c r="H118" t="s">
+        <v>140</v>
+      </c>
+      <c r="L118" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="3:12" x14ac:dyDescent="0.2">
@@ -2515,185 +2646,409 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C121" s="11"/>
-      <c r="E121" t="s">
+    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>164</v>
+      </c>
+      <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>164</v>
+      </c>
+      <c r="H122" t="s">
+        <v>165</v>
+      </c>
+      <c r="L122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>95</v>
+      </c>
+      <c r="G124" t="s">
+        <v>168</v>
+      </c>
+      <c r="H124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C129" s="11"/>
+      <c r="E129" t="s">
+        <v>170</v>
+      </c>
+      <c r="F129" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" t="s">
+        <v>170</v>
+      </c>
+      <c r="H129" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C130" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C131" s="11"/>
+      <c r="D131" s="5"/>
+      <c r="G131" t="s">
+        <v>173</v>
+      </c>
+      <c r="H131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C132" s="11"/>
+      <c r="F132" t="s">
+        <v>59</v>
+      </c>
+      <c r="G132" t="s">
+        <v>175</v>
+      </c>
+      <c r="H132" t="s">
+        <v>176</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C133" s="11"/>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C135" s="11"/>
+      <c r="E135" t="s">
+        <v>178</v>
+      </c>
+      <c r="F135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
+        <v>178</v>
+      </c>
+      <c r="H135" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C136" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C137" s="11"/>
+      <c r="F137" t="s">
+        <v>181</v>
+      </c>
+      <c r="G137" t="s">
+        <v>182</v>
+      </c>
+      <c r="H137" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C138" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="141" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C141" s="11"/>
+      <c r="E141" t="s">
+        <v>183</v>
+      </c>
+      <c r="F141" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" t="s">
+        <v>183</v>
+      </c>
+      <c r="H141" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C142" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C143" s="11"/>
+      <c r="F143" t="s">
+        <v>44</v>
+      </c>
+      <c r="G143" t="s">
         <v>186</v>
       </c>
-      <c r="F121" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" t="s">
-        <v>186</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="H143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C144" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C147" s="11"/>
+      <c r="F147" t="s">
+        <v>95</v>
+      </c>
+      <c r="G147" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C122" s="11" t="s">
+      <c r="H147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C148" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>95</v>
+      </c>
+      <c r="G151" t="s">
+        <v>188</v>
+      </c>
+      <c r="H151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C154" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
         <v>28</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C123" s="11"/>
-      <c r="D123" s="5"/>
-      <c r="G123" t="s">
-        <v>189</v>
-      </c>
-      <c r="H123" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C124" s="11"/>
-      <c r="F124" t="s">
-        <v>58</v>
-      </c>
-      <c r="G124" t="s">
-        <v>191</v>
-      </c>
-      <c r="H124" t="s">
-        <v>192</v>
-      </c>
-      <c r="L124" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C125" s="11"/>
-    </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C127" s="11"/>
-      <c r="E127" t="s">
-        <v>194</v>
-      </c>
-      <c r="F127" t="s">
-        <v>34</v>
-      </c>
-      <c r="G127" t="s">
-        <v>194</v>
-      </c>
-      <c r="H127" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="128" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C128" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C129" s="11"/>
-      <c r="F129" t="s">
-        <v>197</v>
-      </c>
-      <c r="G129" t="s">
-        <v>198</v>
-      </c>
-      <c r="H129" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C130" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D130" s="5"/>
-    </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C133" s="11"/>
-      <c r="E133" t="s">
-        <v>199</v>
-      </c>
-      <c r="F133" t="s">
-        <v>34</v>
-      </c>
-      <c r="G133" t="s">
-        <v>199</v>
-      </c>
-      <c r="H133" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C134" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C135" s="11"/>
-      <c r="F135" t="s">
-        <v>44</v>
-      </c>
-      <c r="G135" t="s">
-        <v>202</v>
-      </c>
-      <c r="H135" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C136" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136" s="5"/>
-    </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C139" s="11"/>
-      <c r="F139" t="s">
-        <v>98</v>
-      </c>
-      <c r="G139" t="s">
-        <v>203</v>
-      </c>
-      <c r="H139" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C140" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C141" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C142" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F143" t="s">
-        <v>98</v>
-      </c>
-      <c r="G143" t="s">
-        <v>204</v>
-      </c>
-      <c r="H143" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C144" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
-        <v>60</v>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>35</v>
+      </c>
+      <c r="G158" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>35</v>
+      </c>
+      <c r="G159" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>35</v>
+      </c>
+      <c r="G160" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="161" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>35</v>
+      </c>
+      <c r="G161" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>35</v>
+      </c>
+      <c r="G163" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="164" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>35</v>
+      </c>
+      <c r="G164" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="165" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>35</v>
+      </c>
+      <c r="G165" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>35</v>
+      </c>
+      <c r="G166" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>35</v>
+      </c>
+      <c r="G167" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="168" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>35</v>
+      </c>
+      <c r="G168" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="169" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>35</v>
+      </c>
+      <c r="G169" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="170" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>35</v>
+      </c>
+      <c r="G170" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>35</v>
+      </c>
+      <c r="G171" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="173" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>35</v>
+      </c>
+      <c r="G177" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2705,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2718,45 +3073,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2813,10 +3168,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView topLeftCell="A16" zoomScale="111" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2836,777 +3191,964 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
+        <v>199</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>79</v>
+        <v>201</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>79</v>
+        <v>205</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>49</v>
+        <v>207</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>49</v>
+        <v>211</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>49</v>
+        <v>213</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>49</v>
+        <v>215</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>49</v>
+        <v>217</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>49</v>
+        <v>219</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
       <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
+        <v>223</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>95</v>
+        <v>233</v>
+      </c>
+      <c r="C31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>95</v>
+        <v>237</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>95</v>
+        <v>239</v>
+      </c>
+      <c r="C34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>95</v>
+        <v>241</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>95</v>
+        <v>233</v>
+      </c>
+      <c r="C36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>95</v>
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
       </c>
       <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" t="s">
-        <v>237</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>241</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>247</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C73" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" t="s">
         <v>251</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" t="s">
         <v>253</v>
       </c>
-      <c r="C57" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" t="s">
-        <v>255</v>
-      </c>
-      <c r="C58" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" t="s">
-        <v>257</v>
-      </c>
-      <c r="C59" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" t="s">
-        <v>249</v>
-      </c>
-      <c r="C60" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>108</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>108</v>
-      </c>
-      <c r="B72" t="s">
-        <v>259</v>
-      </c>
-      <c r="C72" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" t="s">
-        <v>261</v>
-      </c>
-      <c r="C77" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" t="s">
-        <v>262</v>
-      </c>
-      <c r="C78" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" t="s">
-        <v>263</v>
-      </c>
-      <c r="C79" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" t="s">
-        <v>264</v>
-      </c>
       <c r="C80" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C82" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C85" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C86" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C87" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" t="s">
-        <v>276</v>
-      </c>
-      <c r="C92" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C95" t="s">
-        <v>249</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C100" t="s">
         <v>281</v>
@@ -3614,497 +4156,464 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C102" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" t="s">
-        <v>268</v>
-      </c>
-      <c r="C103" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C106" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" t="s">
-        <v>273</v>
-      </c>
-      <c r="C107" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="C109" t="s">
-        <v>276</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B110" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" t="s">
-        <v>284</v>
-      </c>
-      <c r="C111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>285</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="C113" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C114" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>37</v>
-      </c>
-      <c r="B115" t="s">
-        <v>249</v>
-      </c>
-      <c r="C115" t="s">
-        <v>249</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C117" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="C118" t="s">
-        <v>78</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="C120" t="s">
-        <v>289</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B121" t="s">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="C121" t="s">
-        <v>291</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B122" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C122" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" t="s">
-        <v>294</v>
-      </c>
-      <c r="C123" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>297</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C126" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="C128" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="C129" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B130" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C130" t="s">
-        <v>299</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" t="s">
+        <v>290</v>
+      </c>
+      <c r="C131" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>147</v>
-      </c>
-      <c r="B133" t="s">
-        <v>78</v>
-      </c>
-      <c r="C133" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B134" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C134" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>150</v>
+      </c>
+      <c r="B135" t="s">
+        <v>294</v>
+      </c>
+      <c r="C135" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="C136" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" t="s">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="C137" t="s">
-        <v>78</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B138" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="C138" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="C140" t="s">
-        <v>77</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B141" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="C141" t="s">
-        <v>78</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B142" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C142" t="s">
-        <v>299</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B144" t="s">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="C144" t="s">
-        <v>77</v>
+        <v>309</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" t="s">
+        <v>233</v>
+      </c>
+      <c r="C145" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>158</v>
       </c>
-      <c r="B145" t="s">
-        <v>78</v>
-      </c>
-      <c r="C145" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>158</v>
-      </c>
-      <c r="B146" t="s">
-        <v>298</v>
-      </c>
-      <c r="C146" t="s">
-        <v>299</v>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C148" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" t="s">
+        <v>283</v>
+      </c>
+      <c r="C149" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>160</v>
       </c>
-      <c r="B149" t="s">
-        <v>78</v>
-      </c>
-      <c r="C149" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>160</v>
-      </c>
-      <c r="B150" t="s">
-        <v>298</v>
-      </c>
-      <c r="C150" t="s">
-        <v>299</v>
+      <c r="B151" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="C152" t="s">
-        <v>301</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>162</v>
-      </c>
-      <c r="B154" t="s">
-        <v>304</v>
-      </c>
-      <c r="C154" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -4112,10 +4621,10 @@
         <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -4123,26 +4632,26 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="C156" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>166</v>
-      </c>
-      <c r="B158" t="s">
-        <v>308</v>
-      </c>
-      <c r="C158" t="s">
-        <v>309</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="s">
+        <v>283</v>
+      </c>
+      <c r="C157" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s">
         <v>310</v>
@@ -4153,7 +4662,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B160" t="s">
         <v>312</v>
@@ -4164,7 +4673,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B161" t="s">
         <v>314</v>
@@ -4175,57 +4684,57 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="C162" t="s">
-        <v>249</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>318</v>
+      </c>
+      <c r="C163" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C164" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C165" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>320</v>
+        <v>233</v>
       </c>
       <c r="C166" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>170</v>
-      </c>
-      <c r="B167" t="s">
-        <v>322</v>
-      </c>
-      <c r="C167" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -4233,10 +4742,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="C168" t="s">
-        <v>325</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -4244,15 +4753,15 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="C169" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B171" t="s">
         <v>77</v>
@@ -4263,7 +4772,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B172" t="s">
         <v>78</v>
@@ -4272,234 +4781,25 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B173" t="s">
-        <v>299</v>
-      </c>
-      <c r="C173" t="s">
-        <v>299</v>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C174" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C175" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>176</v>
-      </c>
-      <c r="B176" t="s">
-        <v>78</v>
-      </c>
-      <c r="C176" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>299</v>
-      </c>
-      <c r="C177" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>77</v>
-      </c>
-      <c r="C179" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>78</v>
-      </c>
-      <c r="C180" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>178</v>
-      </c>
-      <c r="B181" t="s">
-        <v>299</v>
-      </c>
-      <c r="C181" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>180</v>
-      </c>
-      <c r="B183" t="s">
-        <v>326</v>
-      </c>
-      <c r="C183" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>180</v>
-      </c>
-      <c r="B184" t="s">
-        <v>328</v>
-      </c>
-      <c r="C184" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>180</v>
-      </c>
-      <c r="B185" t="s">
-        <v>330</v>
-      </c>
-      <c r="C185" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>180</v>
-      </c>
-      <c r="B186" t="s">
-        <v>332</v>
-      </c>
-      <c r="C186" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>180</v>
-      </c>
-      <c r="B187" t="s">
-        <v>334</v>
-      </c>
-      <c r="C187" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>180</v>
-      </c>
-      <c r="B188" t="s">
-        <v>336</v>
-      </c>
-      <c r="C188" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>180</v>
-      </c>
-      <c r="B189" t="s">
-        <v>338</v>
-      </c>
-      <c r="C189" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>180</v>
-      </c>
-      <c r="B190" t="s">
-        <v>249</v>
-      </c>
-      <c r="C190" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>186</v>
-      </c>
-      <c r="B192" t="s">
-        <v>77</v>
-      </c>
-      <c r="C192" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>186</v>
-      </c>
-      <c r="B193" t="s">
-        <v>78</v>
-      </c>
-      <c r="C193" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>77</v>
-      </c>
-      <c r="C195" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>194</v>
-      </c>
-      <c r="B196" t="s">
-        <v>78</v>
-      </c>
-      <c r="C196" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>199</v>
-      </c>
-      <c r="B198" t="s">
-        <v>77</v>
-      </c>
-      <c r="C198" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>199</v>
-      </c>
-      <c r="B199" t="s">
-        <v>78</v>
-      </c>
-      <c r="C199" t="s">
         <v>78</v>
       </c>
     </row>
